--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value398.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value398.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.279281817054567</v>
+        <v>2.598221302032471</v>
       </c>
       <c r="B1">
-        <v>1.341737542389469</v>
+        <v>2.835617542266846</v>
       </c>
       <c r="C1">
-        <v>1.471914714307266</v>
+        <v>2.245687484741211</v>
       </c>
       <c r="D1">
-        <v>2.177291881376619</v>
+        <v>2.09670090675354</v>
       </c>
       <c r="E1">
-        <v>3.011741481705137</v>
+        <v>1.794364213943481</v>
       </c>
     </row>
   </sheetData>
